--- a/requests.xlsx
+++ b/requests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba83aa28c36731d1/Рабочий стол/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Заявки Lisa</t>
   </si>
@@ -55,12 +55,28 @@
   </si>
   <si>
     <t>Время</t>
+  </si>
+  <si>
+    <t>qwqfq</t>
+  </si>
+  <si>
+    <t>svdwv@mail.ru</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ИП</t>
+  </si>
+  <si>
+    <t>acfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -179,6 +195,8 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -503,11 +521,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="26.6640625"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625"/>
+    <col min="4" max="4" customWidth="true" width="25.77734375"/>
+    <col min="5" max="5" customWidth="true" width="35.88671875"/>
+    <col min="6" max="6" customWidth="true" width="17.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -541,20 +559,44 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n" s="4">
+        <v>44866.0984462037</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n" s="5">
+        <v>44866.098689108796</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>

--- a/requests.xlsx
+++ b/requests.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba83aa28c36731d1/Рабочий стол/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Projects\lisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{63B0CD8D-E14F-4AF7-AFC2-1E5172E620B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8313508-0CE9-4D2F-B359-DE0A6BEAD5DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B22F20B-46C9-41F0-93DA-B79D97B81AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7CBAC3D-E6BF-4BE2-A932-5C122FB82C00}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Заявки Lisa</t>
   </si>
@@ -56,27 +56,11 @@
   <si>
     <t>Время</t>
   </si>
-  <si>
-    <t>qwqfq</t>
-  </si>
-  <si>
-    <t>svdwv@mail.ru</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>ИП</t>
-  </si>
-  <si>
-    <t>acfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfavacfav</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +170,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -195,8 +179,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -513,19 +495,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE91B44-A1C6-4175-9559-916857310367}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F9"/>
+      <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="26.6640625"/>
-    <col min="3" max="3" customWidth="true" width="17.6640625"/>
-    <col min="4" max="4" customWidth="true" width="25.77734375"/>
-    <col min="5" max="5" customWidth="true" width="35.88671875"/>
-    <col min="6" max="6" customWidth="true" width="17.77734375"/>
+    <col min="1" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -559,44 +541,20 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="n" s="4">
-        <v>44866.0984462037</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="n" s="5">
-        <v>44866.098689108796</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -741,30 +699,6 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/requests.xlsx
+++ b/requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Projects\lisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B22F20B-46C9-41F0-93DA-B79D97B81AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFD77E3-CC58-4BCB-BDCF-0374A6C8FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7CBAC3D-E6BF-4BE2-A932-5C122FB82C00}"/>
   </bookViews>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE91B44-A1C6-4175-9559-916857310367}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,14 +692,6 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/requests.xlsx
+++ b/requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Projects\lisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFD77E3-CC58-4BCB-BDCF-0374A6C8FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D4C6A-C285-4CED-BF03-8815A6DF5F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F7CBAC3D-E6BF-4BE2-A932-5C122FB82C00}"/>
   </bookViews>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE91B44-A1C6-4175-9559-916857310367}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="A3" sqref="A3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,86 +612,6 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/requests.xlsx
+++ b/requests.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Projects\lisa\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Заявки Lisa</t>
   </si>
@@ -55,12 +55,28 @@
   </si>
   <si>
     <t>Время</t>
+  </si>
+  <si>
+    <t>Павел Петрович</t>
+  </si>
+  <si>
+    <t>pavel1990@mail.ru</t>
+  </si>
+  <si>
+    <t>89184327654</t>
+  </si>
+  <si>
+    <t>ИП</t>
+  </si>
+  <si>
+    <t>Основные проблемы и необходимость привлечения юридического лица к уголовной ответственности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +199,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -192,6 +208,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 1" xfId="1" builtinId="16"/>
@@ -661,11 +678,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="26.6640625"/>
+    <col min="3" max="3" customWidth="true" width="17.6640625"/>
+    <col min="4" max="4" customWidth="true" width="25.77734375"/>
+    <col min="5" max="5" customWidth="true" width="35.88671875"/>
+    <col min="6" max="6" customWidth="true" width="17.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -699,12 +716,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n" s="4">
+        <v>44879.749493194446</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
